--- a/conf/resources/high-end-tv-and-childrens-tv-tax-relief-template.xlsx
+++ b/conf/resources/high-end-tv-and-childrens-tv-tax-relief-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc.sharepoint.com/teams/GRP042118873/Creative Industries/Creatives Reform 2022/IT Project/Stencils/Existing reliefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{C0697855-7022-4993-876A-61F9817F3590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DC7FA3-7B01-4608-9CDA-86106DEA72A1}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{C0697855-7022-4993-876A-61F9817F3590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946CF05B-671C-47FC-A853-AB0E8AB0ACD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,6 +1131,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1155,15 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1171,65 +1171,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1466,6 +1407,65 @@
       </fill>
       <protection locked="1" hidden="1"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1559,21 +1559,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A5:B6" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total Income" totalsRowLabel="Total" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Income of which is a State Aid" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H46" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:H46" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <autoFilter ref="A7:H45" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1585,18 +1585,18 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK Core Expenditure" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK Core Expenditure" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Expenditure" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Total expenditure" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Non Core Expenditure" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Core Expenditure" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Total UK Core Expenditure" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Total Non UK Core Expenditure" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table2[Total Non UK Core Expenditure])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Apportionment basis " totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table2[[Apportionment basis ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2089,7 +2089,7 @@
   <dimension ref="A2:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,12 +2108,12 @@
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,12 +2122,12 @@
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,12 +2136,12 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="81" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2231,7 +2231,7 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="11" t="s">
         <v>41</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="11" t="s">
         <v>43</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="11" t="s">
         <v>46</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="82" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2487,7 +2487,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="11" t="s">
         <v>55</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="11" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="11" t="s">
         <v>64</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
@@ -2613,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="68">
-        <f>MIN(E19,E22)</f>
+        <f t="shared" ref="E25:H25" si="2">MIN(E21,E24)</f>
         <v>0</v>
       </c>
       <c r="F25" s="68">
-        <f>MIN(F19,F22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="68">
-        <f>MIN(G19,G22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="68">
-        <f>MIN(H19,H22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="24" t="s">
@@ -2634,7 +2634,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
@@ -2647,22 +2647,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="68">
-        <f t="shared" ref="F26:H26" si="2">E25</f>
+        <f t="shared" ref="F26:H26" si="3">E25</f>
         <v>0</v>
       </c>
       <c r="G26" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="11" t="s">
         <v>69</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="11" t="s">
         <v>70</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="85" t="s">
         <v>142</v>
       </c>
       <c r="B29" s="76" t="s">
@@ -2742,26 +2742,26 @@
         <v>0</v>
       </c>
       <c r="E29" s="70">
-        <f t="shared" ref="E29:H29" si="3">E23</f>
+        <f t="shared" ref="E29:H29" si="4">E23</f>
         <v>0</v>
       </c>
       <c r="F29" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="76" t="s">
         <v>144</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="76" t="s">
         <v>146</v>
       </c>
@@ -2805,15 +2805,15 @@
         <v>0</v>
       </c>
       <c r="F31" s="70">
-        <f t="shared" ref="F31:H31" si="4">F29-F30</f>
+        <f t="shared" ref="F31:H31" si="5">F29-F30</f>
         <v>0</v>
       </c>
       <c r="G31" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2822,7 +2822,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="76" t="s">
         <v>149</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="76" t="s">
         <v>150</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="76" t="s">
         <v>151</v>
       </c>
@@ -2878,19 +2878,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="70">
-        <f t="shared" ref="E34:H34" si="5">SUM(E32-E33)</f>
+        <f t="shared" ref="E34:H34" si="6">SUM(E32-E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -2899,7 +2899,7 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="76" t="s">
         <v>153</v>
       </c>
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="70">
-        <f t="shared" ref="E35:H35" si="6">E31+E34</f>
+        <f t="shared" ref="E35:H35" si="7">E31+E34</f>
         <v>0</v>
       </c>
       <c r="F35" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -2932,7 +2932,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="76" t="s">
         <v>156</v>
       </c>
@@ -2944,26 +2944,26 @@
         <v>0</v>
       </c>
       <c r="E36" s="70">
-        <f t="shared" ref="E36:H36" si="7">E21</f>
+        <f t="shared" ref="E36:H36" si="8">E21</f>
         <v>0</v>
       </c>
       <c r="F36" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="76" t="s">
         <v>157</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="76" t="s">
         <v>159</v>
       </c>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="70">
-        <f t="shared" ref="E38:H38" si="8">E36-E37</f>
+        <f t="shared" ref="E38:H38" si="9">E36-E37</f>
         <v>0</v>
       </c>
       <c r="F38" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G38" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -3024,7 +3024,7 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="77" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="76" t="s">
@@ -3044,7 +3044,7 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="76" t="s">
         <v>83</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="76" t="s">
         <v>85</v>
       </c>
@@ -3094,18 +3094,18 @@
         <v>0</v>
       </c>
       <c r="G41" s="68">
-        <f t="shared" ref="G41:H41" si="9">F41+F43</f>
+        <f t="shared" ref="G41:H41" si="10">F41+F43</f>
         <v>0</v>
       </c>
       <c r="H41" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="76" t="s">
         <v>87</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="76" t="s">
         <v>89</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="76" t="s">
         <v>92</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="I48" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T8ywdUBlbHsXSB3ZKBXUQ+RACg93+iArEGEdDQSQsCkc4PeV3hI6SEnOrg/LSsZOdkeDx3nDkAgCObrtLlQhfQ==" saltValue="Ubt7AOvrKbTWIbvRffC1Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Dp9hzB07E0lQCto5woZDpDbcwfoe+gQDpT/21rYgdWBjP0oiApbHro98rU5A9ajhu9i0HwXydmBuKZku91hZCA==" saltValue="slpSBgr1CFStzEYf73m9zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="D2:I2"/>
@@ -3248,77 +3248,77 @@
     <mergeCell ref="A29:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14 G16 G18">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 H16 H18">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40 D42 D28:H28">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40 E42">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40 F42">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40 G42">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40 H42">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 D16 D18">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E16 E18">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F16 F18">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3804,12 +3804,12 @@
   </sheetData>
   <sheetProtection password="F86F" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="notEqual">
       <formula>$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="notEqual">
       <formula>$D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3830,8 +3830,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="196d710fa02d7b8454006001c59ff208">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dd5f73807ecc01be09f0551dd16e5ff" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100350E8E2BB23E2A4AA4EA2615525F2B5A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4fb86a6bd64274b76f239f5430f3f160">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e4bfe8b-ef84-4e47-853e-31313f64a53a" xmlns:ns3="7058508a-d375-4a1e-a567-7dd1bee321db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e5356646ac113cdb6f7e4fb15d9e89" ns2:_="" ns3:_="">
     <xsd:import namespace="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
     <xsd:import namespace="7058508a-d375-4a1e-a567-7dd1bee321db"/>
     <xsd:element name="properties">
@@ -3847,6 +3862,11 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3882,6 +3902,31 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4014,23 +4059,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDB48C3-7A57-4D87-8665-9E381B772306}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B682B6BD-22B1-4230-B7C7-7243EACD7EDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D0311A7-49E1-4B19-8A58-DA94761D0EE7}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49625211-30A3-48CC-B4CF-34B491AA864D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4046,29 +4101,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B682B6BD-22B1-4230-B7C7-7243EACD7EDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e4bfe8b-ef84-4e47-853e-31313f64a53a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7058508a-d375-4a1e-a567-7dd1bee321db"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCDB48C3-7A57-4D87-8665-9E381B772306}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>